--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fushimi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fushimi\Desktop\GC1\Shooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>スケジュール</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,18 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -136,14 +148,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,186 +437,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="Y1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>10</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>11</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>12</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>13</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>14</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>15</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>16</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>17</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>18</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>19</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>20</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>21</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>22</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>23</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
